--- a/kie-dmn/kie-dmn-xls2dmn-cli/src/test/resources/Loan_approvals_colshuffled.xlsx
+++ b/kie-dmn/kie-dmn-xls2dmn-cli/src/test/resources/Loan_approvals_colshuffled.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t xml:space="preserve">DMN</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">HitPolicy</t>
   </si>
   <si>
-    <t xml:space="preserve">U</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">“Approved”</t>
   </si>
   <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
     <t xml:space="preserve">DTI Ratio</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,13 +138,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -241,15 +237,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,10 +337,10 @@
   <dimension ref="A1:H1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.83"/>
@@ -10455,10 +10451,10 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.67"/>
@@ -10475,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10496,7 +10492,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -10504,7 +10500,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -10512,7 +10508,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -11530,10 +11526,10 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.67"/>
@@ -11550,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11571,7 +11567,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -11579,7 +11575,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -11587,7 +11583,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
